--- a/仕様書/エレメンタル_仕様書_ギミック.xlsx
+++ b/仕様書/エレメンタル_仕様書_ギミック.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9795" activeTab="10"/>
+    <workbookView windowWidth="22440" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="前提情報" sheetId="1" r:id="rId1"/>
@@ -702,12 +702,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,17 +732,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="16"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,16 +800,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +838,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -787,16 +853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,28 +862,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,45 +870,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,10 +884,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -896,14 +894,8 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,12 +982,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1008,7 +994,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1048,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,25 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,109 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1459,18 +1421,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,29 +1496,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,157 +1556,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,9 +1749,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -1891,6 +1898,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1898,6 +1911,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7503,8 +7522,8 @@
   <sheetPr/>
   <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7551,351 +7570,351 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="49"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="49"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="57" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="49"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="49"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="60" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="61" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="49"/>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55" t="s">
+      <c r="D38" s="53"/>
+      <c r="E38" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="49"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="52"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="49"/>
-      <c r="C43" s="53" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="54" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="55"/>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="55"/>
-      <c r="C46" s="53" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="55"/>
+      <c r="E46" s="54"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="55"/>
-      <c r="C47" s="53" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="54"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="55"/>
-      <c r="C48" s="53" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="55"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8202,7 +8221,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -8695,7 +8714,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="6"/>
-      <c r="W51" s="35"/>
+      <c r="W51" s="34"/>
       <c r="X51" t="s">
         <v>64</v>
       </c>
@@ -8725,15 +8744,15 @@
     </row>
     <row r="57" customHeight="1" spans="2:21">
       <c r="B57" s="3"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
       <c r="U57" s="7"/>
     </row>
     <row r="58" customHeight="1" spans="2:21">
       <c r="B58" s="3"/>
-      <c r="L58" s="38"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="38"/>
+      <c r="L58" s="37"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="37"/>
       <c r="U58" s="7"/>
     </row>
     <row r="59" customHeight="1" spans="2:21">
@@ -8747,11 +8766,11 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="19"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="18"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
@@ -8770,9 +8789,9 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="19"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="18"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -8832,13 +8851,13 @@
     </row>
     <row r="68" customHeight="1" spans="2:21">
       <c r="B68" s="3"/>
-      <c r="P68" s="35"/>
+      <c r="P68" s="34"/>
       <c r="U68" s="7"/>
     </row>
     <row r="69" customHeight="1" spans="2:21">
       <c r="B69" s="3"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="35"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="34"/>
       <c r="U69" s="7"/>
     </row>
     <row r="70" customHeight="1" spans="2:21">
@@ -8853,9 +8872,9 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="46"/>
+      <c r="M70" s="45"/>
       <c r="N70" s="4"/>
-      <c r="O70" s="46"/>
+      <c r="O70" s="45"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -8876,7 +8895,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="43"/>
+      <c r="N71" s="42"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
@@ -8946,13 +8965,13 @@
     </row>
     <row r="79" customHeight="1" spans="2:21">
       <c r="B79" s="3"/>
-      <c r="P79" s="38"/>
+      <c r="P79" s="37"/>
       <c r="U79" s="7"/>
     </row>
     <row r="80" customHeight="1" spans="2:21">
       <c r="B80" s="3"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="38"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="37"/>
       <c r="U80" s="7"/>
     </row>
     <row r="81" customHeight="1" spans="2:21">
@@ -8965,11 +8984,11 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="17"/>
+      <c r="K81" s="16"/>
       <c r="L81" s="4"/>
       <c r="N81" s="4"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="19"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="18"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
@@ -8987,10 +9006,10 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="17"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="19"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="18"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
@@ -9257,195 +9276,195 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:23">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="28"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="27"/>
       <c r="W27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:21">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="29"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="28"/>
     </row>
     <row r="29" customHeight="1" spans="2:24">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="29"/>
-      <c r="W29" s="35"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="28"/>
+      <c r="W29" s="34"/>
       <c r="X29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:21">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="29"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="28"/>
     </row>
     <row r="31" customHeight="1" spans="2:24">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="29"/>
-      <c r="W31" s="34"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="28"/>
+      <c r="W31" s="33"/>
       <c r="X31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:21">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="41"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="40"/>
     </row>
     <row r="33" customHeight="1" spans="2:24">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="36"/>
-      <c r="W33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="35"/>
+      <c r="W33" s="32"/>
       <c r="X33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:21">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="38"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="37"/>
     </row>
     <row r="35" customHeight="1" spans="2:21">
       <c r="B35" s="4"/>
@@ -9460,14 +9479,14 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="13"/>
+      <c r="R35" s="12"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="13"/>
+      <c r="U35" s="12"/>
     </row>
     <row r="36" customHeight="1" spans="2:21">
       <c r="B36" s="4"/>
@@ -10220,7 +10239,7 @@
     <row r="54" customHeight="1" spans="2:24">
       <c r="B54" s="3"/>
       <c r="U54" s="7"/>
-      <c r="W54" s="12"/>
+      <c r="W54" s="11"/>
       <c r="X54" t="s">
         <v>102</v>
       </c>
@@ -10236,7 +10255,7 @@
     <row r="57" customHeight="1" spans="2:21">
       <c r="B57" s="3"/>
       <c r="P57" s="9"/>
-      <c r="S57" s="12"/>
+      <c r="S57" s="11"/>
       <c r="U57" s="7"/>
     </row>
     <row r="58" customHeight="1" spans="2:21">
@@ -10257,7 +10276,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="13"/>
+      <c r="S58" s="12"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
@@ -10336,7 +10355,7 @@
     </row>
     <row r="68" customHeight="1" spans="2:21">
       <c r="B68" s="3"/>
-      <c r="P68" s="14"/>
+      <c r="P68" s="13"/>
       <c r="S68" s="9"/>
       <c r="U68" s="7"/>
     </row>
@@ -10357,9 +10376,9 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="19"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="4"/>
     </row>
     <row r="70" customHeight="1" spans="2:21">
@@ -10379,9 +10398,9 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="19"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="4"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
@@ -10423,25 +10442,25 @@
     </row>
     <row r="75" customHeight="1" spans="2:23">
       <c r="B75" s="3"/>
-      <c r="L75" s="15">
+      <c r="L75" s="14">
         <v>46</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="14">
         <v>42</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N75" s="14">
         <v>34</v>
       </c>
-      <c r="O75" s="15">
+      <c r="O75" s="14">
         <v>27</v>
       </c>
-      <c r="P75" s="15">
+      <c r="P75" s="14">
         <v>33</v>
       </c>
-      <c r="Q75" s="15">
+      <c r="Q75" s="14">
         <v>41</v>
       </c>
-      <c r="R75" s="15">
+      <c r="R75" s="14">
         <v>45</v>
       </c>
       <c r="U75" s="7"/>
@@ -10451,50 +10470,50 @@
     </row>
     <row r="76" customHeight="1" spans="2:21">
       <c r="B76" s="3"/>
-      <c r="L76" s="15">
+      <c r="L76" s="14">
         <v>39</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="14">
         <v>22</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="14">
         <v>18</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="14">
         <v>11</v>
       </c>
-      <c r="P76" s="15">
+      <c r="P76" s="14">
         <v>17</v>
       </c>
-      <c r="Q76" s="15">
+      <c r="Q76" s="14">
         <v>21</v>
       </c>
-      <c r="R76" s="15">
+      <c r="R76" s="14">
         <v>37</v>
       </c>
       <c r="U76" s="7"/>
     </row>
     <row r="77" customHeight="1" spans="2:23">
       <c r="B77" s="3"/>
-      <c r="L77" s="15">
+      <c r="L77" s="14">
         <v>31</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="14">
         <v>15</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="14">
         <v>6</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="14">
         <v>3</v>
       </c>
-      <c r="P77" s="15">
+      <c r="P77" s="14">
         <v>5</v>
       </c>
-      <c r="Q77" s="15">
+      <c r="Q77" s="14">
         <v>13</v>
       </c>
-      <c r="R77" s="15">
+      <c r="R77" s="14">
         <v>29</v>
       </c>
       <c r="U77" s="7"/>
@@ -10504,23 +10523,23 @@
     </row>
     <row r="78" customHeight="1" spans="2:23">
       <c r="B78" s="3"/>
-      <c r="L78" s="15">
+      <c r="L78" s="14">
         <v>26</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="14">
         <v>10</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N78" s="14">
         <v>2</v>
       </c>
-      <c r="O78" s="16"/>
-      <c r="P78" s="15">
+      <c r="O78" s="15"/>
+      <c r="P78" s="14">
         <v>1</v>
       </c>
-      <c r="Q78" s="15">
+      <c r="Q78" s="14">
         <v>9</v>
       </c>
-      <c r="R78" s="15">
+      <c r="R78" s="14">
         <v>25</v>
       </c>
       <c r="U78" s="7"/>
@@ -10530,50 +10549,50 @@
     </row>
     <row r="79" customHeight="1" spans="2:21">
       <c r="B79" s="3"/>
-      <c r="L79" s="15">
+      <c r="L79" s="14">
         <v>32</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="14">
         <v>16</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N79" s="14">
         <v>8</v>
       </c>
-      <c r="O79" s="15">
+      <c r="O79" s="14">
         <v>4</v>
       </c>
-      <c r="P79" s="15">
+      <c r="P79" s="14">
         <v>7</v>
       </c>
-      <c r="Q79" s="15">
+      <c r="Q79" s="14">
         <v>14</v>
       </c>
-      <c r="R79" s="15">
+      <c r="R79" s="14">
         <v>30</v>
       </c>
       <c r="U79" s="7"/>
     </row>
     <row r="80" customHeight="1" spans="2:21">
       <c r="B80" s="3"/>
-      <c r="L80" s="15">
+      <c r="L80" s="14">
         <v>40</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="14">
         <v>24</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="14">
         <v>20</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="14">
         <v>12</v>
       </c>
-      <c r="P80" s="15">
+      <c r="P80" s="14">
         <v>19</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="14">
         <v>23</v>
       </c>
-      <c r="R80" s="15">
+      <c r="R80" s="14">
         <v>38</v>
       </c>
       <c r="U80" s="7"/>
@@ -10589,28 +10608,28 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="15">
+      <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="14">
         <v>44</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N81" s="14">
         <v>36</v>
       </c>
-      <c r="O81" s="15">
+      <c r="O81" s="14">
         <v>28</v>
       </c>
-      <c r="P81" s="15">
+      <c r="P81" s="14">
         <v>35</v>
       </c>
-      <c r="Q81" s="15">
+      <c r="Q81" s="14">
         <v>43</v>
       </c>
-      <c r="R81" s="21">
+      <c r="R81" s="20">
         <v>47</v>
       </c>
-      <c r="S81" s="13"/>
+      <c r="S81" s="12"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
@@ -10919,195 +10938,195 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:23">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="28"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="27"/>
       <c r="W27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:21">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="29"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="28"/>
     </row>
     <row r="29" customHeight="1" spans="2:24">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="29"/>
-      <c r="W29" s="35"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="28"/>
+      <c r="W29" s="34"/>
       <c r="X29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:21">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="36"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="35"/>
     </row>
     <row r="31" customHeight="1" spans="2:24">
-      <c r="B31" s="31"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="W31" s="34"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="W31" s="33"/>
       <c r="X31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:21">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="36"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="35"/>
     </row>
     <row r="33" customHeight="1" spans="2:24">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="36"/>
-      <c r="W33" s="33"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="35"/>
+      <c r="W33" s="32"/>
       <c r="X33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:21">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="36"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="35"/>
     </row>
     <row r="35" customHeight="1" spans="2:21">
       <c r="B35" s="4"/>
@@ -11921,7 +11940,7 @@
     <row r="54" customHeight="1" spans="2:24">
       <c r="B54" s="3"/>
       <c r="U54" s="7"/>
-      <c r="W54" s="12"/>
+      <c r="W54" s="11"/>
       <c r="X54" t="s">
         <v>102</v>
       </c>
@@ -11937,7 +11956,7 @@
     <row r="57" customHeight="1" spans="2:21">
       <c r="B57" s="3"/>
       <c r="P57" s="9"/>
-      <c r="S57" s="12"/>
+      <c r="S57" s="11"/>
       <c r="U57" s="7"/>
     </row>
     <row r="58" customHeight="1" spans="2:21">
@@ -11958,7 +11977,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="13"/>
+      <c r="S58" s="12"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
@@ -12037,7 +12056,7 @@
     </row>
     <row r="68" customHeight="1" spans="2:21">
       <c r="B68" s="3"/>
-      <c r="P68" s="14"/>
+      <c r="P68" s="13"/>
       <c r="S68" s="9"/>
       <c r="U68" s="7"/>
     </row>
@@ -12058,9 +12077,9 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="19"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="4"/>
     </row>
     <row r="70" customHeight="1" spans="2:21">
@@ -12080,9 +12099,9 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="19"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="4"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
@@ -12091,319 +12110,319 @@
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:23">
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="28"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="27"/>
       <c r="W73" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:23">
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="15">
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="14">
         <v>78</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L74" s="14">
         <v>74</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="14">
         <v>66</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N74" s="14">
         <v>58</v>
       </c>
-      <c r="O74" s="15">
+      <c r="O74" s="14">
         <v>51</v>
       </c>
-      <c r="P74" s="15">
+      <c r="P74" s="14">
         <v>57</v>
       </c>
-      <c r="Q74" s="15">
+      <c r="Q74" s="14">
         <v>65</v>
       </c>
-      <c r="R74" s="15">
+      <c r="R74" s="14">
         <v>73</v>
       </c>
-      <c r="S74" s="15">
+      <c r="S74" s="14">
         <v>77</v>
       </c>
-      <c r="T74" s="25"/>
-      <c r="U74" s="29"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="28"/>
       <c r="W74" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:23">
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="15">
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="14">
         <v>71</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L75" s="14">
         <v>46</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="14">
         <v>42</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N75" s="14">
         <v>34</v>
       </c>
-      <c r="O75" s="15">
+      <c r="O75" s="14">
         <v>27</v>
       </c>
-      <c r="P75" s="15">
+      <c r="P75" s="14">
         <v>33</v>
       </c>
-      <c r="Q75" s="15">
+      <c r="Q75" s="14">
         <v>41</v>
       </c>
-      <c r="R75" s="15">
+      <c r="R75" s="14">
         <v>45</v>
       </c>
-      <c r="S75" s="15">
+      <c r="S75" s="14">
         <v>69</v>
       </c>
-      <c r="T75" s="25"/>
-      <c r="U75" s="29"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="28"/>
       <c r="W75" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:21">
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="15">
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="14">
         <v>63</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="14">
         <v>39</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="14">
         <v>22</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="14">
         <v>18</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="14">
         <v>11</v>
       </c>
-      <c r="P76" s="15">
+      <c r="P76" s="14">
         <v>17</v>
       </c>
-      <c r="Q76" s="15">
+      <c r="Q76" s="14">
         <v>21</v>
       </c>
-      <c r="R76" s="15">
+      <c r="R76" s="14">
         <v>37</v>
       </c>
-      <c r="S76" s="15">
+      <c r="S76" s="14">
         <v>61</v>
       </c>
-      <c r="T76" s="25"/>
-      <c r="U76" s="29"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="28"/>
     </row>
     <row r="77" customHeight="1" spans="2:23">
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="15">
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="14">
         <v>55</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L77" s="14">
         <v>31</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="14">
         <v>15</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="14">
         <v>6</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="14">
         <v>3</v>
       </c>
-      <c r="P77" s="15">
+      <c r="P77" s="14">
         <v>5</v>
       </c>
-      <c r="Q77" s="15">
+      <c r="Q77" s="14">
         <v>13</v>
       </c>
-      <c r="R77" s="15">
+      <c r="R77" s="14">
         <v>29</v>
       </c>
-      <c r="S77" s="15">
+      <c r="S77" s="14">
         <v>53</v>
       </c>
-      <c r="T77" s="25"/>
-      <c r="U77" s="29"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="28"/>
       <c r="W77" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:23">
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="15">
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="14">
         <v>50</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="14">
         <v>26</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="14">
         <v>10</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N78" s="14">
         <v>2</v>
       </c>
-      <c r="O78" s="26"/>
-      <c r="P78" s="15">
+      <c r="O78" s="25"/>
+      <c r="P78" s="14">
         <v>1</v>
       </c>
-      <c r="Q78" s="15">
+      <c r="Q78" s="14">
         <v>9</v>
       </c>
-      <c r="R78" s="15">
+      <c r="R78" s="14">
         <v>25</v>
       </c>
-      <c r="S78" s="15">
+      <c r="S78" s="14">
         <v>49</v>
       </c>
-      <c r="T78" s="25"/>
-      <c r="U78" s="29"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="28"/>
       <c r="W78" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:21">
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="15">
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="14">
         <v>56</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L79" s="14">
         <v>32</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="14">
         <v>16</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N79" s="14">
         <v>8</v>
       </c>
-      <c r="O79" s="15">
+      <c r="O79" s="14">
         <v>4</v>
       </c>
-      <c r="P79" s="15">
+      <c r="P79" s="14">
         <v>7</v>
       </c>
-      <c r="Q79" s="15">
+      <c r="Q79" s="14">
         <v>14</v>
       </c>
-      <c r="R79" s="15">
+      <c r="R79" s="14">
         <v>30</v>
       </c>
-      <c r="S79" s="15">
+      <c r="S79" s="14">
         <v>54</v>
       </c>
-      <c r="T79" s="25"/>
-      <c r="U79" s="29"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="28"/>
     </row>
     <row r="80" customHeight="1" spans="2:21">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="15">
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="14">
         <v>64</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L80" s="14">
         <v>40</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="14">
         <v>24</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="14">
         <v>20</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="14">
         <v>12</v>
       </c>
-      <c r="P80" s="15">
+      <c r="P80" s="14">
         <v>19</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="14">
         <v>23</v>
       </c>
-      <c r="R80" s="15">
+      <c r="R80" s="14">
         <v>38</v>
       </c>
-      <c r="S80" s="15">
+      <c r="S80" s="14">
         <v>62</v>
       </c>
-      <c r="T80" s="25"/>
-      <c r="U80" s="29"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="28"/>
     </row>
     <row r="81" customHeight="1" spans="2:21">
       <c r="B81" s="4"/>
@@ -12415,31 +12434,31 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="15">
+      <c r="K81" s="14">
         <v>72</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="14">
         <v>44</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N81" s="14">
         <v>36</v>
       </c>
-      <c r="O81" s="15">
+      <c r="O81" s="14">
         <v>28</v>
       </c>
-      <c r="P81" s="15">
+      <c r="P81" s="14">
         <v>35</v>
       </c>
-      <c r="Q81" s="15">
+      <c r="Q81" s="14">
         <v>43</v>
       </c>
-      <c r="R81" s="21">
+      <c r="R81" s="20">
         <v>47</v>
       </c>
-      <c r="S81" s="15">
+      <c r="S81" s="14">
         <v>70</v>
       </c>
       <c r="T81" s="4"/>
@@ -12455,31 +12474,31 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="27">
+      <c r="K82" s="26">
         <v>80</v>
       </c>
-      <c r="L82" s="27">
+      <c r="L82" s="26">
         <v>76</v>
       </c>
-      <c r="M82" s="27">
+      <c r="M82" s="26">
         <v>68</v>
       </c>
-      <c r="N82" s="27">
+      <c r="N82" s="26">
         <v>60</v>
       </c>
-      <c r="O82" s="27">
+      <c r="O82" s="26">
         <v>52</v>
       </c>
-      <c r="P82" s="27">
+      <c r="P82" s="26">
         <v>59</v>
       </c>
-      <c r="Q82" s="30">
+      <c r="Q82" s="29">
         <v>67</v>
       </c>
-      <c r="R82" s="27">
+      <c r="R82" s="26">
         <v>75</v>
       </c>
-      <c r="S82" s="30">
+      <c r="S82" s="29">
         <v>79</v>
       </c>
       <c r="T82" s="4"/>
@@ -13830,18 +13849,18 @@
       <c r="W12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" t="s">
@@ -14221,7 +14240,7 @@
     <row r="54" customHeight="1" spans="2:23">
       <c r="B54" s="3"/>
       <c r="U54" s="7"/>
-      <c r="W54" s="12"/>
+      <c r="W54" s="11"/>
     </row>
     <row r="55" customHeight="1" spans="2:21">
       <c r="B55" s="3"/>
@@ -14234,7 +14253,7 @@
     <row r="57" customHeight="1" spans="2:21">
       <c r="B57" s="3"/>
       <c r="P57" s="9"/>
-      <c r="S57" s="12"/>
+      <c r="S57" s="11"/>
       <c r="U57" s="7"/>
     </row>
     <row r="58" customHeight="1" spans="2:21">
@@ -14255,7 +14274,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="13"/>
+      <c r="S58" s="12"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
@@ -14334,7 +14353,7 @@
     </row>
     <row r="68" customHeight="1" spans="2:21">
       <c r="B68" s="3"/>
-      <c r="P68" s="14"/>
+      <c r="P68" s="13"/>
       <c r="S68" s="9"/>
       <c r="U68" s="7"/>
     </row>
@@ -14355,9 +14374,9 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="19"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="4"/>
     </row>
     <row r="70" customHeight="1" spans="2:21">
@@ -14377,9 +14396,9 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="19"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="4"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
@@ -14421,25 +14440,25 @@
     </row>
     <row r="75" customHeight="1" spans="2:23">
       <c r="B75" s="3"/>
-      <c r="L75" s="15">
+      <c r="L75" s="14">
         <v>46</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="14">
         <v>42</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N75" s="14">
         <v>34</v>
       </c>
-      <c r="O75" s="15">
+      <c r="O75" s="14">
         <v>27</v>
       </c>
-      <c r="P75" s="15">
+      <c r="P75" s="14">
         <v>33</v>
       </c>
-      <c r="Q75" s="15">
+      <c r="Q75" s="14">
         <v>41</v>
       </c>
-      <c r="R75" s="15">
+      <c r="R75" s="14">
         <v>45</v>
       </c>
       <c r="U75" s="7"/>
@@ -14449,50 +14468,50 @@
     </row>
     <row r="76" customHeight="1" spans="2:21">
       <c r="B76" s="3"/>
-      <c r="L76" s="15">
+      <c r="L76" s="14">
         <v>39</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="14">
         <v>22</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="14">
         <v>18</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="14">
         <v>11</v>
       </c>
-      <c r="P76" s="15">
+      <c r="P76" s="14">
         <v>17</v>
       </c>
-      <c r="Q76" s="15">
+      <c r="Q76" s="14">
         <v>21</v>
       </c>
-      <c r="R76" s="15">
+      <c r="R76" s="14">
         <v>37</v>
       </c>
       <c r="U76" s="7"/>
     </row>
     <row r="77" customHeight="1" spans="2:23">
       <c r="B77" s="3"/>
-      <c r="L77" s="15">
+      <c r="L77" s="14">
         <v>31</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="14">
         <v>15</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="14">
         <v>6</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="14">
         <v>3</v>
       </c>
-      <c r="P77" s="15">
+      <c r="P77" s="14">
         <v>5</v>
       </c>
-      <c r="Q77" s="15">
+      <c r="Q77" s="14">
         <v>13</v>
       </c>
-      <c r="R77" s="15">
+      <c r="R77" s="14">
         <v>29</v>
       </c>
       <c r="U77" s="7"/>
@@ -14502,23 +14521,23 @@
     </row>
     <row r="78" customHeight="1" spans="2:23">
       <c r="B78" s="3"/>
-      <c r="L78" s="15">
+      <c r="L78" s="14">
         <v>26</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="14">
         <v>10</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N78" s="14">
         <v>2</v>
       </c>
-      <c r="O78" s="16"/>
-      <c r="P78" s="15">
+      <c r="O78" s="15"/>
+      <c r="P78" s="14">
         <v>1</v>
       </c>
-      <c r="Q78" s="15">
+      <c r="Q78" s="14">
         <v>9</v>
       </c>
-      <c r="R78" s="15">
+      <c r="R78" s="14">
         <v>25</v>
       </c>
       <c r="U78" s="7"/>
@@ -14528,50 +14547,50 @@
     </row>
     <row r="79" customHeight="1" spans="2:21">
       <c r="B79" s="3"/>
-      <c r="L79" s="15">
+      <c r="L79" s="14">
         <v>32</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="14">
         <v>16</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N79" s="14">
         <v>8</v>
       </c>
-      <c r="O79" s="15">
+      <c r="O79" s="14">
         <v>4</v>
       </c>
-      <c r="P79" s="15">
+      <c r="P79" s="14">
         <v>7</v>
       </c>
-      <c r="Q79" s="15">
+      <c r="Q79" s="14">
         <v>14</v>
       </c>
-      <c r="R79" s="15">
+      <c r="R79" s="14">
         <v>30</v>
       </c>
       <c r="U79" s="7"/>
     </row>
     <row r="80" customHeight="1" spans="2:21">
       <c r="B80" s="3"/>
-      <c r="L80" s="15">
+      <c r="L80" s="14">
         <v>40</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="14">
         <v>24</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="14">
         <v>20</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="14">
         <v>12</v>
       </c>
-      <c r="P80" s="15">
+      <c r="P80" s="14">
         <v>19</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="14">
         <v>23</v>
       </c>
-      <c r="R80" s="15">
+      <c r="R80" s="14">
         <v>38</v>
       </c>
       <c r="U80" s="7"/>
@@ -14587,28 +14606,28 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="15">
+      <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="14">
         <v>44</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N81" s="14">
         <v>36</v>
       </c>
-      <c r="O81" s="15">
+      <c r="O81" s="14">
         <v>28</v>
       </c>
-      <c r="P81" s="15">
+      <c r="P81" s="14">
         <v>35</v>
       </c>
-      <c r="Q81" s="15">
+      <c r="Q81" s="14">
         <v>43</v>
       </c>
-      <c r="R81" s="21">
+      <c r="R81" s="20">
         <v>47</v>
       </c>
-      <c r="S81" s="13"/>
+      <c r="S81" s="12"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
